--- a/fhir/core/2.2.0/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,46 +141,13 @@
     <t>proposed</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>The care team has been drafted and proposed, but not yet participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>The care team is currently participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>suspended</t>
   </si>
   <si>
-    <t>Suspended</t>
-  </si>
-  <si>
-    <t>The care team is temporarily on hold or suspended and not participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>inactive</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>The care team was, but is no longer, participating in the coordination and delivery of care.</t>
-  </si>
-  <si>
     <t>entered-in-error</t>
-  </si>
-  <si>
-    <t>Entered In Error</t>
-  </si>
-  <si>
-    <t>The care team should have never existed.</t>
   </si>
 </sst>
 </file>
@@ -518,68 +485,48 @@
       <c r="B2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/core/2.2.0/CodeSystem-care-team-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-care-team-status-dk-supplement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
